--- a/parabolic/2025/09/10/parabolic.xlsx
+++ b/parabolic/2025/09/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>248800</v>
+        <v>447500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>19963400</v>
+        <v>30853800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D4" t="n">
-        <v>125400</v>
+        <v>204700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>216</v>
+        <v>353</v>
       </c>
       <c r="D5" t="n">
-        <v>669300</v>
+        <v>285600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5027</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>796</v>
+        <v>752</v>
       </c>
       <c r="D6" t="n">
-        <v>129100</v>
+        <v>295600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>161.8000030517578</v>
+        <v>209</v>
       </c>
       <c r="D7" t="n">
-        <v>80771800</v>
+        <v>2460100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9980</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,177 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122</v>
+        <v>801</v>
       </c>
       <c r="D8" t="n">
-        <v>1939700</v>
+        <v>207200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>6538</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>313</v>
+      </c>
+      <c r="D9" t="n">
+        <v>126100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7038</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>724</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7167</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>930</v>
+      </c>
+      <c r="D11" t="n">
+        <v>991700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>560</v>
+      </c>
+      <c r="D12" t="n">
+        <v>258300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>160.8999938964844</v>
+      </c>
+      <c r="D13" t="n">
+        <v>102533100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>892.9000244140625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1046900</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>109</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4590800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/10/parabolic.xlsx
+++ b/parabolic/2025/09/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>447500</v>
+        <v>505300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="D3" t="n">
-        <v>30853800</v>
+        <v>265500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>204700</v>
+        <v>34294200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>353</v>
+        <v>922</v>
       </c>
       <c r="D5" t="n">
-        <v>285600</v>
+        <v>100600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>752</v>
+        <v>306</v>
       </c>
       <c r="D6" t="n">
-        <v>295600</v>
+        <v>227000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4376</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="D7" t="n">
-        <v>2460100</v>
+        <v>433400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5027</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>801</v>
+        <v>727</v>
       </c>
       <c r="D8" t="n">
-        <v>207200</v>
+        <v>422400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6538</t>
+          <t>4376</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>126100</v>
+        <v>3448100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>724</v>
+        <v>927.9000244140625</v>
       </c>
       <c r="D10" t="n">
-        <v>104000</v>
+        <v>13533900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>930</v>
+        <v>802</v>
       </c>
       <c r="D11" t="n">
-        <v>991700</v>
+        <v>309900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7794</t>
+          <t>6538</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="D12" t="n">
-        <v>258300</v>
+        <v>165100</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>160.8999938964844</v>
+        <v>719</v>
       </c>
       <c r="D13" t="n">
-        <v>102533100</v>
+        <v>118900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>892.9000244140625</v>
+        <v>286</v>
       </c>
       <c r="D14" t="n">
-        <v>1046900</v>
+        <v>142200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>9980</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,16 +781,108 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>109</v>
+        <v>933.2000122070312</v>
       </c>
       <c r="D15" t="n">
-        <v>4590800</v>
+        <v>1619100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>7794</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>560</v>
+      </c>
+      <c r="D16" t="n">
+        <v>258300</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>9432</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>161</v>
+      </c>
+      <c r="D17" t="n">
+        <v>129752000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>888.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1373600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>105</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5359100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/10/parabolic.xlsx
+++ b/parabolic/2025/09/10/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D2" t="n">
-        <v>505300</v>
+        <v>790500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3" t="n">
-        <v>265500</v>
+        <v>324800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
-        <v>34294200</v>
+        <v>36959500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>922</v>
+        <v>936</v>
       </c>
       <c r="D5" t="n">
-        <v>100600</v>
+        <v>119100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D6" t="n">
-        <v>227000</v>
+        <v>249800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D7" t="n">
-        <v>433400</v>
+        <v>512200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D8" t="n">
-        <v>422400</v>
+        <v>455200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>200</v>
       </c>
       <c r="D9" t="n">
-        <v>3448100</v>
+        <v>4020400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>927.9000244140625</v>
+        <v>934.9000244140625</v>
       </c>
       <c r="D10" t="n">
-        <v>13533900</v>
+        <v>19950700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="D11" t="n">
-        <v>309900</v>
+        <v>425800</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6538</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>306</v>
+        <v>905</v>
       </c>
       <c r="D12" t="n">
-        <v>165100</v>
+        <v>1676400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>719</v>
+        <v>483</v>
       </c>
       <c r="D13" t="n">
-        <v>118900</v>
+        <v>143500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>6538</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D14" t="n">
-        <v>142200</v>
+        <v>184100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>933.2000122070312</v>
+        <v>718</v>
       </c>
       <c r="D15" t="n">
-        <v>1619100</v>
+        <v>130100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7794</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>560</v>
+        <v>285</v>
       </c>
       <c r="D16" t="n">
-        <v>258300</v>
+        <v>163700</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9432</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>161</v>
+        <v>931.2000122070312</v>
       </c>
       <c r="D17" t="n">
-        <v>129752000</v>
+        <v>2838700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>888.5</v>
+        <v>565</v>
       </c>
       <c r="D18" t="n">
-        <v>1373600</v>
+        <v>367000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>9980</t>
+          <t>9432</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,16 +873,62 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>105</v>
+        <v>161.3000030517578</v>
       </c>
       <c r="D19" t="n">
-        <v>5359100</v>
+        <v>185566400</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>887.4000244140625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1879800</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>9980</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>105</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5793200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
